--- a/spliced/struggle/2023-04-06_18-13-50/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-13-50/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03573226928710932</v>
+        <v>0.3229818344116211</v>
       </c>
       <c r="B2" t="n">
-        <v>1.091637820005417</v>
+        <v>0.6911778450012207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02871005609631534</v>
+        <v>0.0410229265689849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3065404891967778</v>
+        <v>0.03573226928710932</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2820112705230735</v>
+        <v>1.091637820005417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5336970239877709</v>
+        <v>0.02871005609631534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.235683798789977</v>
+        <v>-0.3065404891967778</v>
       </c>
       <c r="B4" t="n">
-        <v>1.699176728725431</v>
+        <v>-0.2820112705230735</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.264458738267415</v>
+        <v>0.5336970239877709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.863949537277225</v>
+        <v>1.235683798789977</v>
       </c>
       <c r="B5" t="n">
-        <v>2.962162733078003</v>
+        <v>1.699176728725431</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.810576677322413</v>
+        <v>-9.264458738267415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.016938030719759</v>
+        <v>0.863949537277225</v>
       </c>
       <c r="B6" t="n">
-        <v>1.812374681234356</v>
+        <v>2.962162733078003</v>
       </c>
       <c r="C6" t="n">
-        <v>3.528335273265831</v>
+        <v>-4.810576677322413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.448214650154112</v>
+        <v>-1.016938030719759</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6974614262580892</v>
+        <v>1.812374681234356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2024929523468025</v>
+        <v>3.528335273265831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.741048276424405</v>
+        <v>-1.448214650154112</v>
       </c>
       <c r="B8" t="n">
-        <v>2.403452962636946</v>
+        <v>0.6974614262580892</v>
       </c>
       <c r="C8" t="n">
-        <v>1.657237887382503</v>
+        <v>0.2024929523468025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.059070587158203</v>
+        <v>-0.741048276424405</v>
       </c>
       <c r="B9" t="n">
-        <v>4.932431697845459</v>
+        <v>2.403452962636946</v>
       </c>
       <c r="C9" t="n">
-        <v>8.35069465637207</v>
+        <v>1.657237887382503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-14.23740649223328</v>
+        <v>-5.059070587158203</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.685086905956268</v>
+        <v>4.932431697845459</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.66821980476379</v>
+        <v>8.35069465637207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.523534297943144</v>
+        <v>-14.23740649223328</v>
       </c>
       <c r="B11" t="n">
-        <v>1.658495068550122</v>
+        <v>-4.685086905956268</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.12692010402678</v>
+        <v>-11.66821980476379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2367224693298144</v>
+        <v>1.523534297943144</v>
       </c>
       <c r="B12" t="n">
-        <v>2.003786832094186</v>
+        <v>1.658495068550122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6863620281219598</v>
+        <v>-6.12692010402678</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.165284633636483</v>
+        <v>0.2367224693298144</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6432097852230073</v>
+        <v>2.003786832094186</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.792131662368751</v>
+        <v>0.6863620281219598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.553572356700887</v>
+        <v>-2.165284633636483</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2867545410990673</v>
+        <v>0.6432097852230073</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.648992538452138</v>
+        <v>-1.792131662368751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.401553869247437</v>
+        <v>-2.553572356700887</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.257887557148934</v>
+        <v>-0.2867545410990673</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.942715406417845</v>
+        <v>-8.648992538452138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4359638094902062</v>
+        <v>-4.401553869247437</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4895955845713609</v>
+        <v>-1.257887557148934</v>
       </c>
       <c r="C16" t="n">
-        <v>7.27920758724213</v>
+        <v>-6.942715406417845</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.941592216491699</v>
+        <v>0.4359638094902062</v>
       </c>
       <c r="B17" t="n">
-        <v>1.415750741958618</v>
+        <v>0.4895955845713609</v>
       </c>
       <c r="C17" t="n">
-        <v>2.028909683227539</v>
+        <v>7.27920758724213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.841609954833984</v>
+        <v>-2.941592216491699</v>
       </c>
       <c r="B18" t="n">
-        <v>1.175870314240456</v>
+        <v>1.415750741958618</v>
       </c>
       <c r="C18" t="n">
-        <v>2.039763569831848</v>
+        <v>2.028909683227539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-8.905681610107422</v>
+        <v>-2.841609954833984</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9636736810207367</v>
+        <v>1.175870314240456</v>
       </c>
       <c r="C19" t="n">
-        <v>4.923756122589111</v>
+        <v>2.039763569831848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.471291422843918</v>
+        <v>-8.905681610107422</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0547291114926366</v>
+        <v>0.9636736810207367</v>
       </c>
       <c r="C20" t="n">
-        <v>1.600609958171833</v>
+        <v>4.923756122589111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-5.471291422843918</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.0547291114926366</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.600609958171833</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>1.258475780487077</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-0.083541259169576</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-5.154085397720357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.9749262332916433</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.300361778587099</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.267426431179062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.844243764877326</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.833226948976521</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.409952521324157</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4797788858413697</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.523662269115448</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.702465817332268</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.155098915100098</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.092013478279114</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.727226853370667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.098365545272828</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.6193101108074199</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1845241859555233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.8518145084381094</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.03355145454406605</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7549576908350003</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.405293345451355</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8384262472391129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3231545425951481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2438197135925255</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4860433936119046</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.09267929568886754</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.07322704792022328</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1344193816185026</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.148086081258953</v>
       </c>
     </row>
   </sheetData>
